--- a/assigment_2/upp_5_6/Chart_Merge_vs_insertion_vs_MergeX.xlsx
+++ b/assigment_2/upp_5_6/Chart_Merge_vs_insertion_vs_MergeX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedshakra/Desktop/Algorithm_data_structure/assigment_2/upp_6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedshakra/Desktop/Algorithm_data_structure/assigment_2/upp_5_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22BFBEA-13E3-0B4C-8362-8E2F13645FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA366F8B-1769-2E4C-A456-6B8459F2E979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14680" xr2:uid="{5597F67A-7B81-774E-91E1-7E2329987204}"/>
   </bookViews>
@@ -1890,7 +1890,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.12</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3839,7 +3839,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.12</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9101,8 +9101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF6D17B-BB0A-534C-9334-51EFDE84AA8F}">
   <dimension ref="B4:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScale="125" zoomScaleNormal="213" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9304,7 +9304,7 @@
         <v>2.21</v>
       </c>
       <c r="V8" s="2">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
